--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H2">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I2">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J2">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N2">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O2">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P2">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q2">
-        <v>9.072046705623</v>
+        <v>90.05839033561601</v>
       </c>
       <c r="R2">
-        <v>81.648420350607</v>
+        <v>810.5255130205441</v>
       </c>
       <c r="S2">
-        <v>0.001630520589143733</v>
+        <v>0.03700809471043129</v>
       </c>
       <c r="T2">
-        <v>0.002290251918822065</v>
+        <v>0.04612550913633127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H3">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I3">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J3">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N3">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O3">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P3">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q3">
-        <v>127.873075633596</v>
+        <v>112.3533467870293</v>
       </c>
       <c r="R3">
-        <v>1150.857680702364</v>
+        <v>674.1200807221761</v>
       </c>
       <c r="S3">
-        <v>0.0229826509257807</v>
+        <v>0.04616986028101289</v>
       </c>
       <c r="T3">
-        <v>0.03228175144358572</v>
+        <v>0.03836292805448924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.950239</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H4">
-        <v>152.850717</v>
+        <v>45.591472</v>
       </c>
       <c r="I4">
-        <v>0.1520006117784607</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J4">
-        <v>0.1540898474582185</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8571405</v>
+        <v>2.509764</v>
       </c>
       <c r="N4">
-        <v>27.714281</v>
+        <v>7.529292</v>
       </c>
       <c r="O4">
-        <v>0.8348251414909441</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P4">
-        <v>0.7711387726585802</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q4">
-        <v>706.0246203315795</v>
+        <v>38.141278377536</v>
       </c>
       <c r="R4">
-        <v>4236.147721989477</v>
+        <v>343.2715053978239</v>
       </c>
       <c r="S4">
-        <v>0.1268939322346636</v>
+        <v>0.0156735650871893</v>
       </c>
       <c r="T4">
-        <v>0.1188246558480785</v>
+        <v>0.01953494702401576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.950239</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H5">
-        <v>152.850717</v>
+        <v>45.591472</v>
       </c>
       <c r="I5">
-        <v>0.1520006117784607</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J5">
-        <v>0.1540898474582185</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05389233333333333</v>
+        <v>3.131084</v>
       </c>
       <c r="N5">
-        <v>0.161677</v>
+        <v>6.262168</v>
       </c>
       <c r="O5">
-        <v>0.003246750280137314</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P5">
-        <v>0.004498597793214309</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q5">
-        <v>2.745827263601</v>
+        <v>47.58357617188266</v>
       </c>
       <c r="R5">
-        <v>24.712445372409</v>
+        <v>285.501457031296</v>
       </c>
       <c r="S5">
-        <v>0.0004935080288727606</v>
+        <v>0.01955373049715312</v>
       </c>
       <c r="T5">
-        <v>0.0006931882477322713</v>
+        <v>0.01624736032756954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.19715733333333</v>
+        <v>177.70077</v>
       </c>
       <c r="H6">
-        <v>45.591472</v>
+        <v>533.10231</v>
       </c>
       <c r="I6">
-        <v>0.04533790728558088</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J6">
-        <v>0.0459610730244441</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N6">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O6">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P6">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q6">
-        <v>2.705960243301333</v>
+        <v>445.98699531828</v>
       </c>
       <c r="R6">
-        <v>24.35364218971199</v>
+        <v>4013.88295786452</v>
       </c>
       <c r="S6">
-        <v>0.0004863427221304431</v>
+        <v>0.1832714186968117</v>
       </c>
       <c r="T6">
-        <v>0.0006831237581301137</v>
+        <v>0.2284226616817817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.19715733333333</v>
+        <v>177.70077</v>
       </c>
       <c r="H7">
-        <v>45.591472</v>
+        <v>533.10231</v>
       </c>
       <c r="I7">
-        <v>0.04533790728558088</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J7">
-        <v>0.0459610730244441</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N7">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O7">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P7">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q7">
-        <v>38.141278377536</v>
+        <v>556.39603773468</v>
       </c>
       <c r="R7">
-        <v>343.2715053978239</v>
+        <v>3338.37622640808</v>
       </c>
       <c r="S7">
-        <v>0.006855138835681774</v>
+        <v>0.2286422973390677</v>
       </c>
       <c r="T7">
-        <v>0.009628823442491262</v>
+        <v>0.1899808218964651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.19715733333333</v>
+        <v>20.074196</v>
       </c>
       <c r="H8">
-        <v>45.591472</v>
+        <v>40.148392</v>
       </c>
       <c r="I8">
-        <v>0.04533790728558088</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J8">
-        <v>0.0459610730244441</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.8571405</v>
+        <v>2.509764</v>
       </c>
       <c r="N8">
-        <v>27.714281</v>
+        <v>7.529292</v>
       </c>
       <c r="O8">
-        <v>0.8348251414909441</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P8">
-        <v>0.7711387726585802</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q8">
-        <v>210.5891443686053</v>
+        <v>50.381494449744</v>
       </c>
       <c r="R8">
-        <v>1263.534866211632</v>
+        <v>302.288966698464</v>
       </c>
       <c r="S8">
-        <v>0.03784922486458837</v>
+        <v>0.02070349149369393</v>
       </c>
       <c r="T8">
-        <v>0.0354423654421412</v>
+        <v>0.01720270648026934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.19715733333333</v>
+        <v>20.074196</v>
       </c>
       <c r="H9">
-        <v>45.591472</v>
+        <v>40.148392</v>
       </c>
       <c r="I9">
-        <v>0.04533790728558088</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J9">
-        <v>0.0459610730244441</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05389233333333333</v>
+        <v>3.131084</v>
       </c>
       <c r="N9">
-        <v>0.161677</v>
+        <v>6.262168</v>
       </c>
       <c r="O9">
-        <v>0.003246750280137314</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P9">
-        <v>0.004498597793214309</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q9">
-        <v>0.8190102687271109</v>
+        <v>62.853993908464</v>
       </c>
       <c r="R9">
-        <v>7.371092418543999</v>
+        <v>251.415975633856</v>
       </c>
       <c r="S9">
-        <v>0.0001472008631802993</v>
+        <v>0.02582887114487306</v>
       </c>
       <c r="T9">
-        <v>0.0002067603816815259</v>
+        <v>0.01430761856946646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>124.2523</v>
+        <v>182.547562</v>
       </c>
       <c r="H10">
-        <v>372.7569</v>
+        <v>547.642686</v>
       </c>
       <c r="I10">
-        <v>0.3706837491945982</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J10">
-        <v>0.3757787662847431</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N10">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O10">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P10">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q10">
-        <v>22.1239917811</v>
+        <v>458.151299395368</v>
       </c>
       <c r="R10">
-        <v>199.1159260299</v>
+        <v>4123.361694558312</v>
       </c>
       <c r="S10">
-        <v>0.003976349029461155</v>
+        <v>0.188270150249682</v>
       </c>
       <c r="T10">
-        <v>0.005585235203569014</v>
+        <v>0.2346528942759228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,666 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>124.2523</v>
+        <v>182.547562</v>
       </c>
       <c r="H11">
-        <v>372.7569</v>
+        <v>547.642686</v>
       </c>
       <c r="I11">
-        <v>0.3706837491945982</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J11">
-        <v>0.3757787662847431</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N11">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O11">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P11">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q11">
-        <v>311.8439494572</v>
+        <v>571.571750617208</v>
       </c>
       <c r="R11">
-        <v>2806.5955451148</v>
+        <v>3429.430503703248</v>
       </c>
       <c r="S11">
-        <v>0.05604776922882306</v>
+        <v>0.234878520500085</v>
       </c>
       <c r="T11">
-        <v>0.07872547692845654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>124.2523</v>
-      </c>
-      <c r="H12">
-        <v>372.7569</v>
-      </c>
-      <c r="I12">
-        <v>0.3706837491945982</v>
-      </c>
-      <c r="J12">
-        <v>0.3757787662847431</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>13.8571405</v>
-      </c>
-      <c r="N12">
-        <v>27.714281</v>
-      </c>
-      <c r="O12">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P12">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q12">
-        <v>1721.78157854815</v>
-      </c>
-      <c r="R12">
-        <v>10330.6894712889</v>
-      </c>
-      <c r="S12">
-        <v>0.3094561133697741</v>
-      </c>
-      <c r="T12">
-        <v>0.2897775766239722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>124.2523</v>
-      </c>
-      <c r="H13">
-        <v>372.7569</v>
-      </c>
-      <c r="I13">
-        <v>0.3706837491945982</v>
-      </c>
-      <c r="J13">
-        <v>0.3757787662847431</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.161677</v>
-      </c>
-      <c r="O13">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P13">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q13">
-        <v>6.696246369033333</v>
-      </c>
-      <c r="R13">
-        <v>60.2662173213</v>
-      </c>
-      <c r="S13">
-        <v>0.001203517566539912</v>
-      </c>
-      <c r="T13">
-        <v>0.001690477528745341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>13.634385</v>
-      </c>
-      <c r="H14">
-        <v>27.26877</v>
-      </c>
-      <c r="I14">
-        <v>0.04067566515680267</v>
-      </c>
-      <c r="J14">
-        <v>0.02748983251202704</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.178057</v>
-      </c>
-      <c r="N14">
-        <v>0.534171</v>
-      </c>
-      <c r="O14">
-        <v>0.01072706596418309</v>
-      </c>
-      <c r="P14">
-        <v>0.01486309420510698</v>
-      </c>
-      <c r="Q14">
-        <v>2.427697689945</v>
-      </c>
-      <c r="R14">
-        <v>14.56618613967</v>
-      </c>
-      <c r="S14">
-        <v>0.0004363305432740459</v>
-      </c>
-      <c r="T14">
-        <v>0.0004085839703088705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>13.634385</v>
-      </c>
-      <c r="H15">
-        <v>27.26877</v>
-      </c>
-      <c r="I15">
-        <v>0.04067566515680267</v>
-      </c>
-      <c r="J15">
-        <v>0.02748983251202704</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.509764</v>
-      </c>
-      <c r="N15">
-        <v>7.529292</v>
-      </c>
-      <c r="O15">
-        <v>0.1512010422647355</v>
-      </c>
-      <c r="P15">
-        <v>0.2094995353430986</v>
-      </c>
-      <c r="Q15">
-        <v>34.21908863514</v>
-      </c>
-      <c r="R15">
-        <v>205.31453181084</v>
-      </c>
-      <c r="S15">
-        <v>0.006150202966519949</v>
-      </c>
-      <c r="T15">
-        <v>0.005759107137929272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.634385</v>
-      </c>
-      <c r="H16">
-        <v>27.26877</v>
-      </c>
-      <c r="I16">
-        <v>0.04067566515680267</v>
-      </c>
-      <c r="J16">
-        <v>0.02748983251202704</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.8571405</v>
-      </c>
-      <c r="N16">
-        <v>27.714281</v>
-      </c>
-      <c r="O16">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P16">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q16">
-        <v>188.9335885760925</v>
-      </c>
-      <c r="R16">
-        <v>755.73435430437</v>
-      </c>
-      <c r="S16">
-        <v>0.03395706791976606</v>
-      </c>
-      <c r="T16">
-        <v>0.02119847570391447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>13.634385</v>
-      </c>
-      <c r="H17">
-        <v>27.26877</v>
-      </c>
-      <c r="I17">
-        <v>0.04067566515680267</v>
-      </c>
-      <c r="J17">
-        <v>0.02748983251202704</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.161677</v>
-      </c>
-      <c r="O17">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P17">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q17">
-        <v>0.7347888212149999</v>
-      </c>
-      <c r="R17">
-        <v>4.40873292729</v>
-      </c>
-      <c r="S17">
-        <v>0.0001320637272426206</v>
-      </c>
-      <c r="T17">
-        <v>0.0001236656998744358</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>131.1635103333333</v>
-      </c>
-      <c r="H18">
-        <v>393.4905309999999</v>
-      </c>
-      <c r="I18">
-        <v>0.3913020665845575</v>
-      </c>
-      <c r="J18">
-        <v>0.3966804807205673</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.178057</v>
-      </c>
-      <c r="N18">
-        <v>0.534171</v>
-      </c>
-      <c r="O18">
-        <v>0.01072706596418309</v>
-      </c>
-      <c r="P18">
-        <v>0.01486309420510698</v>
-      </c>
-      <c r="Q18">
-        <v>23.35458115942233</v>
-      </c>
-      <c r="R18">
-        <v>210.1912304348009</v>
-      </c>
-      <c r="S18">
-        <v>0.004197523080173711</v>
-      </c>
-      <c r="T18">
-        <v>0.005895899354276913</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>131.1635103333333</v>
-      </c>
-      <c r="H19">
-        <v>393.4905309999999</v>
-      </c>
-      <c r="I19">
-        <v>0.3913020665845575</v>
-      </c>
-      <c r="J19">
-        <v>0.3966804807205673</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.509764</v>
-      </c>
-      <c r="N19">
-        <v>7.529292</v>
-      </c>
-      <c r="O19">
-        <v>0.1512010422647355</v>
-      </c>
-      <c r="P19">
-        <v>0.2094995353430986</v>
-      </c>
-      <c r="Q19">
-        <v>329.189456348228</v>
-      </c>
-      <c r="R19">
-        <v>2962.705107134052</v>
-      </c>
-      <c r="S19">
-        <v>0.05916528030793002</v>
-      </c>
-      <c r="T19">
-        <v>0.08310437639063584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>131.1635103333333</v>
-      </c>
-      <c r="H20">
-        <v>393.4905309999999</v>
-      </c>
-      <c r="I20">
-        <v>0.3913020665845575</v>
-      </c>
-      <c r="J20">
-        <v>0.3966804807205673</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>13.8571405</v>
-      </c>
-      <c r="N20">
-        <v>27.714281</v>
-      </c>
-      <c r="O20">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P20">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q20">
-        <v>1817.551191162201</v>
-      </c>
-      <c r="R20">
-        <v>10905.30714697321</v>
-      </c>
-      <c r="S20">
-        <v>0.326668803102152</v>
-      </c>
-      <c r="T20">
-        <v>0.3058956990404739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>131.1635103333333</v>
-      </c>
-      <c r="H21">
-        <v>393.4905309999999</v>
-      </c>
-      <c r="I21">
-        <v>0.3913020665845575</v>
-      </c>
-      <c r="J21">
-        <v>0.3966804807205673</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.161677</v>
-      </c>
-      <c r="O21">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P21">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q21">
-        <v>7.068707620054109</v>
-      </c>
-      <c r="R21">
-        <v>63.61836858048698</v>
-      </c>
-      <c r="S21">
-        <v>0.001270460094301722</v>
-      </c>
-      <c r="T21">
-        <v>0.001784505935180735</v>
+        <v>0.1951625525536886</v>
       </c>
     </row>
   </sheetData>
